--- a/nomer1.xlsx
+++ b/nomer1.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
